--- a/historico.xlsx
+++ b/historico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A38E584-704C-48EB-8ABA-D74FB0FADB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3A086-0F57-4FEA-8983-CC42E62BBDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="1050" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historico" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>DataResposta</t>
-  </si>
-  <si>
-    <t>RESPONDEU</t>
-  </si>
-  <si>
-    <t>HoraResposta</t>
   </si>
 </sst>
 </file>
@@ -489,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD2D2-CB40-46B6-A6BF-3E65AECF4AA0}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,12 +775,10 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -803,60 +795,18 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.33958333333333335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45384</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,136 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D6894-E644-46B7-A85C-76F5BE8A1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1050" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15480" yWindow="1050" windowWidth="15600" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="historico" sheetId="1" r:id="rId1"/>
-    <sheet name="HistAlcadas" sheetId="2" r:id="rId2"/>
-    <sheet name="HistTransf" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="historico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HistAlcadas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HistTransf" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>DataAprovacao</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Emissor</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Evento</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>DataCadastro</t>
-  </si>
-  <si>
-    <t>Aprovacao</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>HORA</t>
-  </si>
-  <si>
-    <t>REMETENTE</t>
-  </si>
-  <si>
-    <t>ASSUNTO</t>
-  </si>
-  <si>
-    <t>EMISSOR</t>
-  </si>
-  <si>
-    <t>DataResposta</t>
-  </si>
-  <si>
-    <t>RESPONDIDO</t>
-  </si>
-  <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>Felipe Farah</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Pemex</t>
-  </si>
-  <si>
-    <t>Pemex</t>
-  </si>
-  <si>
-    <t>2024-06-30 22:10:41</t>
-  </si>
-  <si>
-    <t>Respondido</t>
-  </si>
-  <si>
-    <t>QUEM RESPONDEU</t>
-  </si>
-  <si>
-    <t>DATA RESPOSTA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,38 +74,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,86 +439,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="G9" s="2"/>
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>DataAprovacao</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Emissor</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Evento</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Mesa</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>DataCadastro</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Aprovacao</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="G2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="G3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="G4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="G5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="G7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="G8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="G9" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -537,57 +546,350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>REMETENTE</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>ASSUNTO</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>EMISSOR</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>DataResposta</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>RESPONDIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Felipe Farah</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Pemex</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pemex</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-06-30 22:10:41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fayga</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Equatorial</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Equatorial</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:36:44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Paula Sônia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Enel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Enel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:36:57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Felipe Farah</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Magazine Luiza</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Magazine Luiza</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:40:34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lídia Santos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Agibank</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Agibank</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:40:45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Paula Sônia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] CCR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CCR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:40:45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fayga</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] CTEEP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CTEEP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-07-01 21:06:09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lídia Santos</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] CCR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CCR</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-07-01 21:11:14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -596,55 +898,156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="G3" s="1"/>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>REMETENTE</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>ASSUNTO</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>EMISSOR</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>DataResposta</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>RESPONDIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Felipe Farah</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Pemex</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-07-01 21:06:13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Paula Sônia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Enel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-01 21:10:44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fayga</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[SOLICITAÇÃO DE ALÇADA] Equatorial</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-07-01 21:11:24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Respondido</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342D9BE-544B-4726-86C3-CDC30E84F8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FCBE4-0704-4F65-BD83-397DA7D90DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historico" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,13 +635,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -858,13 +863,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -878,16 +893,13 @@
         <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -900,14 +912,14 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -920,14 +932,14 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
       <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -940,10 +952,10 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FCBE4-0704-4F65-BD83-397DA7D90DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E09C2E-7D6E-46C3-AEC8-C37C81429107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historico" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="56">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="F2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,6 +856,190 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -863,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,6 +1143,326 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E09C2E-7D6E-46C3-AEC8-C37C81429107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622F3EE-7671-4DDC-B2BB-1A771DFB7289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historico" sheetId="1" r:id="rId1"/>
     <sheet name="HistAlcadas" sheetId="2" r:id="rId2"/>
     <sheet name="HistTransf" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="63">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -190,6 +191,27 @@
   </si>
   <si>
     <t>2024-07-01 21:11:24</t>
+  </si>
+  <si>
+    <t>Fulano</t>
+  </si>
+  <si>
+    <t>Beltrano</t>
+  </si>
+  <si>
+    <t>Abertura de Limite</t>
+  </si>
+  <si>
+    <t>Alteração</t>
+  </si>
+  <si>
+    <t>Flexibilização</t>
+  </si>
+  <si>
+    <t>Crédito Estruturado</t>
+  </si>
+  <si>
+    <t>Crédito Core</t>
   </si>
 </sst>
 </file>
@@ -253,18 +275,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,85 +573,1382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B21" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B22" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B23" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B24" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B25" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B26" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B27" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B28" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B29" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B30" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B31" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B32" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B33" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B34" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B35" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B36" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B37" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B38" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B39" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B40" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B41" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B42" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B43" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B44" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B45" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B46" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B47" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B48" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B49" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B50" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B51" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B52" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B53" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B54" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B55" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B56" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B57" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B58" s="6">
+        <v>55566659855</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G17"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,25 +1974,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -697,7 +2021,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -720,7 +2044,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -743,7 +2067,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -766,7 +2090,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -789,7 +2113,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -812,7 +2136,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -835,7 +2159,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -858,7 +2182,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -881,7 +2205,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -927,7 +2251,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -950,7 +2274,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -973,7 +2297,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -996,7 +2320,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1019,7 +2343,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1037,6 +2361,949 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1047,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,22 +3331,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1463,7 +3730,1165 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A4F59B-DF5C-4117-B9E8-CCAE440D8041}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622F3EE-7671-4DDC-B2BB-1A771DFB7289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA172DE9-77A4-4808-B998-EDC3F77E1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="63">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3304,6 +3304,995 @@
         <v>20</v>
       </c>
       <c r="G58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4500,7 +5489,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4510,7 +5499,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
@@ -4530,7 +5519,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -4550,7 +5539,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45327</v>
+        <v>45417</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -4570,7 +5559,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4590,7 +5579,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45327</v>
+        <v>45417</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -4610,7 +5599,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4630,7 +5619,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -4650,7 +5639,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45338</v>
+        <v>45428</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -4670,7 +5659,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45327</v>
+        <v>45417</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -4690,7 +5679,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45338</v>
+        <v>45428</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -4710,7 +5699,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -4730,7 +5719,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -4750,7 +5739,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45327</v>
+        <v>45417</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -4770,7 +5759,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4790,7 +5779,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -4810,7 +5799,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45338</v>
+        <v>45428</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -4830,7 +5819,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45327</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -4850,7 +5839,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45338</v>
+        <v>45428</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -4870,7 +5859,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
